--- a/v5/other_exp/classification_aloi.xlsx
+++ b/v5/other_exp/classification_aloi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\results\analysis_data\standard_aloi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\other_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD31C3-305F-4662-BD3B-04BAC66E9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA16D4E-3A3E-40F4-904D-577CFC7503F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,6 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>apply_attribute-prototype_num:10</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:100</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:500</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:1000</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:2000</t>
-  </si>
-  <si>
     <t>aloi:classification</t>
   </si>
   <si>
@@ -224,6 +209,26 @@
   </si>
   <si>
     <t>total_avg_percentage</t>
+  </si>
+  <si>
+    <t>prototype_num:10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:2000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -242,12 +247,14 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -302,7 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -604,17 +611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,235 +636,235 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -879,28 +887,28 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
